--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\rf_DataDriven\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\pradeeprftask\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45840A55-5598-45A5-892D-D8C6B9BE31E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E104CFEF-6549-488B-B904-CD1437482EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TC_Name</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Login Successfully</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>TC2</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>bean2</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>Enter your userName and password correct</t>
@@ -400,7 +394,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,25 +433,19 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
